--- a/simple-hashTimes.xlsx
+++ b/simple-hashTimes.xlsx
@@ -8,13 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpeterson/Documents/UTexas CS/PS/cs380p-f23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE451E2-207E-AD48-AE2D-F0A5A2285569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19E3EED-21E8-704D-A5F0-C27E673A94AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{09B1B139-03D2-1C4D-B9A6-5AC75A022D8A}"/>
+    <workbookView xWindow="3240" yWindow="2140" windowWidth="28040" windowHeight="17440" xr2:uid="{09B1B139-03D2-1C4D-B9A6-5AC75A022D8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$31:$B$60</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$30</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$31:$B$60</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$30</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$31:$C$60</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$D$30</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$D$31:$D$60</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$2:$B$5,Sheet1!$B$7,Sheet1!$B$28</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$2:$C$5,Sheet1!$C$7,Sheet1!$C$28</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$31:$C$60</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$D$2:$D$5,Sheet1!$D$7,Sheet1!$D$28</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$30</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$31:$D$60</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$31:$B$60</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$30</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$31:$C$60</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$D$30</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$D$31:$D$60</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$B$2:$B$5,Sheet1!$B$7,Sheet1!$B$28</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$C$2:$C$5,Sheet1!$C$7,Sheet1!$C$28</definedName>
+    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$D$2:$D$5,Sheet1!$D$7,Sheet1!$D$28</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="6">
   <si>
     <t>Input File</t>
   </si>
@@ -107,6 +130,4635 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>hashTime vs. hash-workers, fine.txt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hashTime (Mac M1 Pro, 16GB Ram)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$B$31:$B$35,Sheet1!$B$37:$B$60,Sheet1!$B$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$31:$C$35,Sheet1!$C$37:$C$60,Sheet1!$C$60:$C$3631)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3601"/>
+                <c:pt idx="0">
+                  <c:v>1.9782000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9768999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2658999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8877E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2474999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5432000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6507999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5895999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6112999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4486999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5027000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5749999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4070000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.415E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4589000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3218999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3729000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4872E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.381E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4944999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4113999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4902000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.3154000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5445999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5421000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4957000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9886999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.3066999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5038E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5038E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2D5-604C-A7E1-4293CE933E47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hashTime (Codio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$B$31:$B$35,Sheet1!$B$37:$B$60,Sheet1!$B$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$31:$D$35,Sheet1!$D$37:$D$60,Sheet1!$D$36)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5.0639000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6077999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9251000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1698999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4675999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4883999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7811999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5541000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9115999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6905E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9047999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.422E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8087999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8012999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5187000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4916000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4422000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.594E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7282000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6230999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5249000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7032000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5338000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8406000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6540000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.6136999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5991000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6503000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5777999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8855000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2D5-604C-A7E1-4293CE933E47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="828976496"/>
+        <c:axId val="828916640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="828976496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828916640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="828916640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828976496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>hashTime vs. hash-workers, coarse.txt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hashTime (Mac M1 Pro, 16GB Ram)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1.0657E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5325000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9139999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5858999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.903E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7557E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6963999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9417E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9735E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5122999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9602E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6641E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9201999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6291999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6391999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6092999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5778000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9734000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6517000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5712E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6202E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5763000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5816000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5525000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5342000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6502999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5811E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA3B-E54F-A364-785BEAF18B63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hashTime (Codio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>4.2512000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2904999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5112E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2825E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1216E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0432E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0401000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0383E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1605000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8226000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1247E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.7287999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8584999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.5873E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0734E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0293999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1722E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1117999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3572000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8161E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2607999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.3416999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2322E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.8945000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.6639000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.9320999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.031E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CA3B-E54F-A364-785BEAF18B63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="820625360"/>
+        <c:axId val="820996752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="820625360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820996752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="820996752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820625360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>hashTime vs. hash-workers, fine.txt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9782000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9768999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2658999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8877E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2474999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3197999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2168-0C46-AE6A-ECCC1A93EDA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$31:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0639000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6077999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9251000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1698999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4675999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8855000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2168-0C46-AE6A-ECCC1A93EDA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1227496592"/>
+        <c:axId val="963516000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1227496592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="963516000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="963516000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1227496592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>hashTime vs. hash-workers, coarse.txt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$B$2:$B$5,Sheet1!$B$7,Sheet1!$B$28)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$2:$C$5,Sheet1!$C$7,Sheet1!$C$28)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0657E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5325000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9139999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5858999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7557E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5811E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C198-064F-BDA4-78C95EA489D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$B$2:$B$5,Sheet1!$B$7,Sheet1!$B$28)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$2:$D$5,Sheet1!$D$7,Sheet1!$D$28)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2512000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2904999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5112E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2825E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0432E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.031E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C198-064F-BDA4-78C95EA489D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="215978176"/>
+        <c:axId val="215979904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="215978176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="215979904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="215979904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="215978176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44DAAB09-E6F2-80FF-186D-1AC14557FFD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073E3D6B-9F77-D9B0-0D86-5F249BE56953}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5A4E80-5BB8-6289-BC24-2AF8A8526DC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A95184-2A38-A963-D263-5D3933F7E9F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,15 +5058,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C55DF3-38C7-554C-AEC3-59F244130C35}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -441,16 +5095,22 @@
       <c r="C2" s="1">
         <v>1.0657E-2</v>
       </c>
+      <c r="D2" s="1">
+        <v>4.2512000000000001E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>2.9139999999999999E-3</v>
+        <v>5.5325000000000001E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.2904999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -458,10 +5118,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>1.5858999999999999E-3</v>
+        <v>2.9139999999999999E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.5112E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -469,10 +5132,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>1.903E-3</v>
+        <v>1.5858999999999999E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.2825E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -480,10 +5146,13 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>1.7557E-3</v>
+        <v>1.903E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.1216E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -491,10 +5160,13 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>2.6963999999999998E-3</v>
+        <v>1.7557E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.0432E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -502,10 +5174,13 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>1.9417E-3</v>
+        <v>2.6963999999999998E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.0401000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -513,10 +5188,13 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
-        <v>1.9735E-3</v>
+        <v>1.9417E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.0383E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -524,10 +5202,13 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1">
-        <v>2.5122999999999999E-3</v>
+        <v>1.9735E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9.1605000000000002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -535,10 +5216,13 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>1.9602E-3</v>
+        <v>2.5122999999999999E-3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9.8226000000000008E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -546,10 +5230,13 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1">
-        <v>1.6641E-3</v>
+        <v>1.9602E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.1247E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,10 +5244,13 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1">
-        <v>1.9201999999999999E-3</v>
+        <v>1.6641E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9.7287999999999993E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -568,10 +5258,13 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1">
-        <v>1.6291999999999999E-3</v>
+        <v>1.9201999999999999E-3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9.8584999999999992E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -579,10 +5272,13 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1">
-        <v>1.6391999999999999E-3</v>
+        <v>1.6291999999999999E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9.5873E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -590,420 +5286,623 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1">
-        <v>1.6092999999999999E-3</v>
+        <v>1.6391999999999999E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.0734E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1">
-        <v>1.5778000000000001E-3</v>
+        <v>1.6092999999999999E-3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.0293999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1">
-        <v>1.9734000000000002E-3</v>
+        <v>1.5778000000000001E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.1722E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1">
-        <v>1.6517000000000001E-3</v>
+        <v>1.9734000000000002E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.1117999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1">
-        <v>1.5712E-3</v>
+        <v>1.6517000000000001E-3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.3572000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1">
-        <v>1.6202E-3</v>
+        <v>1.5712E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.8161E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1">
-        <v>1.5763000000000001E-3</v>
+        <v>1.6202E-3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.2607999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
       <c r="B23">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1">
-        <v>1.5816000000000001E-3</v>
+        <v>1.5763000000000001E-3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>9.3416999999999997E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C24" s="1">
-        <v>1.5525000000000001E-3</v>
+        <v>1.5816000000000001E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.2322E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C25" s="1">
-        <v>1.5342000000000001E-3</v>
+        <v>1.5525000000000001E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>9.8945000000000005E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1">
-        <v>1.6502999999999999E-3</v>
+        <v>1.5342000000000001E-3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8.6639000000000004E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27">
+        <v>96</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.6502999999999999E-3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9.9320999999999993E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
         <v>100</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <v>1.5811E-3</v>
       </c>
+      <c r="D28" s="1">
+        <v>1.031E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="1">
-        <v>1.9782000000000001E-2</v>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>4000</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3.1588999999999999E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>8000</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3.6507999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
       <c r="B31">
-        <v>12000</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>3.5895999999999997E-2</v>
+        <v>1.9782000000000001E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5.0639000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>16000</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1">
-        <v>3.6112999999999999E-2</v>
+        <v>1.9768999999999998E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3.6077999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
       <c r="B33">
-        <v>20000</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1">
-        <v>3.4486999999999997E-2</v>
+        <v>2.2658999999999999E-2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.9251000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
       <c r="B34">
-        <v>24000</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1">
-        <v>3.5027000000000003E-2</v>
+        <v>2.8877E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3.1698999999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
       <c r="B35">
-        <v>28000</v>
+        <v>16</v>
       </c>
       <c r="C35" s="1">
-        <v>3.5749999999999997E-2</v>
+        <v>3.2474999999999997E-2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3.4675999999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>3</v>
       </c>
       <c r="B36">
-        <v>32000</v>
+        <v>100000</v>
       </c>
       <c r="C36" s="1">
-        <v>3.4070000000000003E-2</v>
+        <v>3.3197999999999998E-2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.8855000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>3</v>
       </c>
       <c r="B37">
-        <v>36000</v>
+        <v>4000</v>
       </c>
       <c r="C37" s="1">
-        <v>3.415E-2</v>
+        <v>5.5432000000000002E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3.4883999999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
       <c r="B38">
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="C38" s="1">
-        <v>3.4589000000000002E-2</v>
+        <v>3.6507999999999999E-2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3.7811999999999998E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3</v>
       </c>
       <c r="B39">
-        <v>44000</v>
+        <v>12000</v>
       </c>
       <c r="C39" s="1">
-        <v>3.3218999999999999E-2</v>
+        <v>3.5895999999999997E-2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3.5541000000000003E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>3</v>
       </c>
       <c r="B40">
-        <v>48000</v>
+        <v>16000</v>
       </c>
       <c r="C40" s="1">
-        <v>3.3729000000000002E-2</v>
+        <v>3.6112999999999999E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3.9115999999999998E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>3</v>
       </c>
       <c r="B41">
-        <v>52000</v>
+        <v>20000</v>
       </c>
       <c r="C41" s="1">
-        <v>3.4872E-2</v>
+        <v>3.4486999999999997E-2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3.6905E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>3</v>
       </c>
       <c r="B42">
-        <v>56000</v>
+        <v>24000</v>
       </c>
       <c r="C42" s="1">
-        <v>3.381E-2</v>
+        <v>3.5027000000000003E-2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3.9047999999999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>3</v>
       </c>
       <c r="B43">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="C43" s="1">
-        <v>3.4944999999999997E-2</v>
+        <v>3.5749999999999997E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3.422E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>3</v>
       </c>
       <c r="B44">
-        <v>64000</v>
+        <v>32000</v>
       </c>
       <c r="C44" s="1">
-        <v>3.4113999999999998E-2</v>
+        <v>3.4070000000000003E-2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3.8087999999999997E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>3</v>
       </c>
       <c r="B45">
-        <v>68000</v>
+        <v>36000</v>
       </c>
       <c r="C45" s="1">
-        <v>3.4902000000000002E-2</v>
+        <v>3.415E-2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3.8012999999999998E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
       <c r="B46">
-        <v>72000</v>
+        <v>40000</v>
       </c>
       <c r="C46" s="1">
-        <v>3.3154000000000003E-2</v>
+        <v>3.4589000000000002E-2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3.5187000000000003E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>3</v>
       </c>
       <c r="B47">
-        <v>76000</v>
+        <v>44000</v>
       </c>
       <c r="C47" s="1">
-        <v>3.5445999999999998E-2</v>
+        <v>3.3218999999999999E-2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.4916000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>3</v>
       </c>
       <c r="B48">
-        <v>80000</v>
+        <v>48000</v>
       </c>
       <c r="C48" s="1">
-        <v>3.5421000000000001E-2</v>
+        <v>3.3729000000000002E-2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3.4422000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>3</v>
       </c>
       <c r="B49">
-        <v>84000</v>
+        <v>52000</v>
       </c>
       <c r="C49" s="1">
-        <v>3.4957000000000002E-2</v>
+        <v>3.4872E-2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3.594E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>3</v>
       </c>
       <c r="B50">
-        <v>88000</v>
+        <v>56000</v>
       </c>
       <c r="C50" s="1">
-        <v>3.9886999999999999E-2</v>
+        <v>3.381E-2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3.7282000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
       <c r="B51">
-        <v>92000</v>
+        <v>60000</v>
       </c>
       <c r="C51" s="1">
-        <v>3.3066999999999999E-2</v>
+        <v>3.4944999999999997E-2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3.6230999999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>3</v>
       </c>
       <c r="B52">
-        <v>96000</v>
+        <v>64000</v>
       </c>
       <c r="C52" s="1">
-        <v>3.5038E-2</v>
+        <v>3.4113999999999998E-2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3.5249000000000003E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>3</v>
       </c>
       <c r="B53">
-        <v>100000</v>
+        <v>68000</v>
       </c>
       <c r="C53" s="1">
-        <v>3.3197999999999998E-2</v>
+        <v>3.4902000000000002E-2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3.7032000000000002E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>72000</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3.3154000000000003E-2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4.5338000000000003E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>76000</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3.5445999999999998E-2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3.8406000000000003E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>80000</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3.5421000000000001E-2</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3.6540000000000003E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>84000</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3.4957000000000002E-2</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4.6136999999999997E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>88000</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3.9886999999999999E-2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3.5991000000000002E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>92000</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3.3066999999999999E-2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3.6503000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>96000</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3.5038E-2</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3.5777999999999997E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/simple-hashTimes.xlsx
+++ b/simple-hashTimes.xlsx
@@ -8,35 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpeterson/Documents/UTexas CS/PS/cs380p-f23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19E3EED-21E8-704D-A5F0-C27E673A94AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F14B2FB-849A-F142-B5F9-AC82895DA27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="2140" windowWidth="28040" windowHeight="17440" xr2:uid="{09B1B139-03D2-1C4D-B9A6-5AC75A022D8A}"/>
+    <workbookView xWindow="2380" yWindow="3500" windowWidth="20280" windowHeight="17440" activeTab="2" xr2:uid="{09B1B139-03D2-1C4D-B9A6-5AC75A022D8A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="hashTime" sheetId="1" r:id="rId1"/>
+    <sheet name="hashGroupTime" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$31:$B$60</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$30</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$31:$B$60</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$30</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$31:$C$60</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$D$30</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$D$31:$D$60</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$2:$B$5,Sheet1!$B$7,Sheet1!$B$28</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$2:$C$5,Sheet1!$C$7,Sheet1!$C$28</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$31:$C$60</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$D$2:$D$5,Sheet1!$D$7,Sheet1!$D$28</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$30</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$31:$D$60</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$31:$B$60</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$30</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$31:$C$60</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$D$30</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$D$31:$D$60</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$B$2:$B$5,Sheet1!$B$7,Sheet1!$B$28</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$C$2:$C$5,Sheet1!$C$7,Sheet1!$C$28</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$D$2:$D$5,Sheet1!$D$7,Sheet1!$D$28</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">hashTime!$B$31:$B$60</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">hashTime!$C$30</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">hashTime!$B$31:$B$60</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">hashTime!$C$30</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">hashTime!$C$31:$C$60</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">hashTime!$D$30</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">hashTime!$D$31:$D$60</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">hashGroupTime!$B$16:$B$21</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">hashGroupTime!$C$15</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">hashGroupTime!$C$16:$C$21</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">hashGroupTime!$D$15</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">hashGroupTime!$D$16:$D$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">hashTime!$C$31:$C$60</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">hashTime!$D$30</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">hashTime!$D$31:$D$60</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">hashTime!$B$31:$B$60</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">hashTime!$C$30</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">hashTime!$C$31:$C$60</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">hashTime!$D$30</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">hashTime!$D$31:$D$60</definedName>
+    <definedName name="_xlchart.v2.20" hidden="1">hashGroupTime!$B$16:$B$21</definedName>
+    <definedName name="_xlchart.v2.21" hidden="1">hashGroupTime!$C$15</definedName>
+    <definedName name="_xlchart.v2.22" hidden="1">hashGroupTime!$C$16:$C$21</definedName>
+    <definedName name="_xlchart.v2.23" hidden="1">hashGroupTime!$D$15</definedName>
+    <definedName name="_xlchart.v2.24" hidden="1">hashGroupTime!$D$16:$D$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -59,12 +65,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="16">
   <si>
     <t>Input File</t>
   </si>
   <si>
     <t>hash-workers</t>
+  </si>
+  <si>
+    <t>comp-workers</t>
   </si>
   <si>
     <t>coarse.txt</t>
@@ -77,6 +86,33 @@
   </si>
   <si>
     <t>hashTime (Codio)</t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
+    <t>sequential</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>mutex</t>
+  </si>
+  <si>
+    <t>hashGroupTime (Codio)</t>
+  </si>
+  <si>
+    <t>hashGroupTime (Mac M1 Pro, 16GB Ram)</t>
+  </si>
+  <si>
+    <t>compareTreeTime (Mac M1 Pro, 16GB Ram)</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>compareTreeTime (Codio)</t>
   </si>
 </sst>
 </file>
@@ -212,7 +248,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$30</c:f>
+              <c:f>hashTime!$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -247,7 +283,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(Sheet1!$B$31:$B$35,Sheet1!$B$37:$B$60,Sheet1!$B$36)</c:f>
+              <c:f>(hashTime!$B$31:$B$35,hashTime!$B$37:$B$60,hashTime!$B$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -346,7 +382,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$C$31:$C$35,Sheet1!$C$37:$C$60,Sheet1!$C$60:$C$3631)</c:f>
+              <c:f>(hashTime!$C$31:$C$35,hashTime!$C$37:$C$60,hashTime!$C$60:$C$3631)</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3601"/>
@@ -455,7 +491,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$30</c:f>
+              <c:f>hashTime!$D$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -490,7 +526,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(Sheet1!$B$31:$B$35,Sheet1!$B$37:$B$60,Sheet1!$B$36)</c:f>
+              <c:f>(hashTime!$B$31:$B$35,hashTime!$B$37:$B$60,hashTime!$B$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -589,7 +625,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$D$31:$D$35,Sheet1!$D$37:$D$60,Sheet1!$D$36)</c:f>
+              <c:f>(hashTime!$D$31:$D$35,hashTime!$D$37:$D$60,hashTime!$D$36)</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="30"/>
@@ -984,7 +1020,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>hashTime!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1019,7 +1055,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$28</c:f>
+              <c:f>hashTime!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1109,7 +1145,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$28</c:f>
+              <c:f>hashTime!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1209,7 +1245,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>hashTime!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1244,7 +1280,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$28</c:f>
+              <c:f>hashTime!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1334,7 +1370,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$28</c:f>
+              <c:f>hashTime!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1731,7 +1767,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$31:$B$36</c:f>
+              <c:f>hashTime!$B$31:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1758,7 +1794,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$31:$C$36</c:f>
+              <c:f>hashTime!$C$31:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1804,7 +1840,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$31:$B$36</c:f>
+              <c:f>hashTime!$B$31:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1831,7 +1867,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$31:$D$36</c:f>
+              <c:f>hashTime!$D$31:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2118,7 +2154,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Sheet1!$B$2:$B$5,Sheet1!$B$7,Sheet1!$B$28)</c:f>
+              <c:f>(hashTime!$B$2:$B$5,hashTime!$B$7,hashTime!$B$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2145,7 +2181,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$2:$C$5,Sheet1!$C$7,Sheet1!$C$28)</c:f>
+              <c:f>(hashTime!$C$2:$C$5,hashTime!$C$7,hashTime!$C$28)</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2191,7 +2227,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Sheet1!$B$2:$B$5,Sheet1!$B$7,Sheet1!$B$28)</c:f>
+              <c:f>(hashTime!$B$2:$B$5,hashTime!$B$7,hashTime!$B$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2218,7 +2254,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$2:$D$5,Sheet1!$D$7,Sheet1!$D$28)</c:f>
+              <c:f>(hashTime!$D$2:$D$5,hashTime!$D$7,hashTime!$D$28)</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2379,6 +2415,1708 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>hashGroupTime vs. hash-workers (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>coarse.txt, M1 Pro</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>hash-workers (channel)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>hashGroupTime!$C$16:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hashGroupTime!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1200999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6369000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9260000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6569E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6402000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4257E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA45-364F-80BA-712C97B9D0D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>hash-workers (mutex)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>hashGroupTime!$D$8:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0854000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5537E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9098000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6318000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6326999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4178000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DA45-364F-80BA-712C97B9D0D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1184822496"/>
+        <c:axId val="936662720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1184822496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="936662720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="936662720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184822496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>hashGroupTime vs. hash-workers (coarse</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>.txt, Codio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>hash-workers (channel)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>hashGroupTime!$C$22:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hashGroupTime!$D$16:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2247E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2061999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3552E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5174999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0312999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1593000000000004E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBA4-5A4F-8A0D-EB61007AC9DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>hash-workers (mutex)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>hashGroupTime!$C$22:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hashGroupTime!$D$22:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2673999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1971000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4112E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3702000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0446E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4999000000000004E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBA4-5A4F-8A0D-EB61007AC9DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1184822496"/>
+        <c:axId val="936662720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1184822496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="936662720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="936662720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184822496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>hashGroupTime vs. hash-workers (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>fine.txt, M1 Pro</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>hash-workers (channel)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>hashGroupTime!$C$16:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hashGroupTime!$D$30:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8558999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1507999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3417E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8552000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8783E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7499000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DB5-8E44-85E0-3681D4C769AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>hash-workers (mutex)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>hashGroupTime!$D$36:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8637999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.83E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2692E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7463999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7000999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7146000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8DB5-8E44-85E0-3681D4C769AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1184822496"/>
+        <c:axId val="936662720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1184822496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="936662720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="936662720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184822496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>hashGroupTime vs. hash-workers (fine</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>.txt, Codio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>hash-workers (channel)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>hashGroupTime!$C$22:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hashGroupTime!$D$44:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.3552999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8864999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4691E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5117000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1078000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9105000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56D2-5244-88CC-A4077A01019C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>hash-workers (mutex)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>hashGroupTime!$C$22:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hashGroupTime!$D$50:$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.7974999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5191000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3202999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3303000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3402000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1812000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-56D2-5244-88CC-A4077A01019C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1184822496"/>
+        <c:axId val="936662720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1184822496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="936662720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="936662720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184822496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2574,6 +4312,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4110,6 +6008,2018 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4745,6 +8655,161 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>798580</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>526026</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>72192</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0D591B-3EBE-72C3-A084-22B8B717CD2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>20484</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>20484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>567285</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>92676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319BEC1A-9635-D94A-A5B3-B6D2883B7223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8722</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>555523</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>81205</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C27C08-3598-F148-BAB5-D64BD4DC5D4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>49981</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>29497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>596782</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>101689</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DEB366-1851-8444-BC4D-77F991273884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5060,8 +9125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C55DF3-38C7-554C-AEC3-59F244130C35}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5079,15 +9144,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5101,7 +9166,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5115,7 +9180,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -5129,7 +9194,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -5143,7 +9208,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -5157,7 +9222,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -5171,7 +9236,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -5185,7 +9250,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>24</v>
@@ -5199,7 +9264,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>28</v>
@@ -5213,7 +9278,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>32</v>
@@ -5227,7 +9292,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>36</v>
@@ -5241,7 +9306,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>40</v>
@@ -5255,7 +9320,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>44</v>
@@ -5269,7 +9334,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>48</v>
@@ -5283,7 +9348,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>52</v>
@@ -5297,7 +9362,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>56</v>
@@ -5311,7 +9376,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>60</v>
@@ -5325,7 +9390,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>64</v>
@@ -5339,7 +9404,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>68</v>
@@ -5353,7 +9418,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21">
         <v>72</v>
@@ -5367,7 +9432,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>76</v>
@@ -5381,7 +9446,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>80</v>
@@ -5395,7 +9460,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>84</v>
@@ -5409,7 +9474,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <v>88</v>
@@ -5423,7 +9488,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26">
         <v>92</v>
@@ -5437,7 +9502,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27">
         <v>96</v>
@@ -5451,7 +9516,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28">
         <v>100</v>
@@ -5475,15 +9540,15 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -5497,7 +9562,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -5511,7 +9576,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -5525,7 +9590,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -5539,7 +9604,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35">
         <v>16</v>
@@ -5553,7 +9618,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <v>100000</v>
@@ -5567,7 +9632,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37">
         <v>4000</v>
@@ -5581,7 +9646,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38">
         <v>8000</v>
@@ -5595,7 +9660,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39">
         <v>12000</v>
@@ -5609,7 +9674,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40">
         <v>16000</v>
@@ -5623,7 +9688,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41">
         <v>20000</v>
@@ -5637,7 +9702,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B42">
         <v>24000</v>
@@ -5651,7 +9716,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43">
         <v>28000</v>
@@ -5665,7 +9730,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44">
         <v>32000</v>
@@ -5679,7 +9744,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45">
         <v>36000</v>
@@ -5693,7 +9758,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46">
         <v>40000</v>
@@ -5707,7 +9772,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47">
         <v>44000</v>
@@ -5721,7 +9786,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48">
         <v>48000</v>
@@ -5735,7 +9800,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49">
         <v>52000</v>
@@ -5749,7 +9814,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50">
         <v>56000</v>
@@ -5763,7 +9828,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51">
         <v>60000</v>
@@ -5777,7 +9842,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52">
         <v>64000</v>
@@ -5791,7 +9856,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53">
         <v>68000</v>
@@ -5805,7 +9870,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54">
         <v>72000</v>
@@ -5819,7 +9884,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55">
         <v>76000</v>
@@ -5833,7 +9898,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56">
         <v>80000</v>
@@ -5847,7 +9912,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57">
         <v>84000</v>
@@ -5861,7 +9926,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58">
         <v>88000</v>
@@ -5875,7 +9940,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59">
         <v>92000</v>
@@ -5889,7 +9954,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60">
         <v>96000</v>
@@ -5905,4 +9970,914 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF848154-B09C-7541-99EC-D60136F45A46}">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView zoomScale="62" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.1200999999999999E-2</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.6369000000000002E-3</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.9260000000000002E-3</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.6569E-3</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.6402000000000001E-3</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.4257E-3</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.0854000000000001E-2</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5.5537E-3</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.9098000000000001E-3</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.6318000000000001E-3</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.6326999999999999E-3</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>100000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.4178000000000001E-3</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.2247E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.2061999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.3552E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.5174999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.0312999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9.1593000000000004E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4.2673999999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.1971000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.4112E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.3702000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.0446E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>100000</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9.4999000000000004E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.8558999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.1507999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2.3417E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2.8552000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2.8783E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5.7499000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.8637999999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.83E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2.2692E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2.7463999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3.7000999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>100000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5.7146000000000002E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6.3552999999999998E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3.8864999999999997E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3.4691E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.5117000000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4.1078000000000003E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3.9105000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5.7974999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4.5191000000000002E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4.3202999999999998E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4.3303000000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4.3402000000000003E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>100000</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4.1812000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36718F5-1030-AA4B-B6AA-4B2B10738B16}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.57140000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.58131999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.46011000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.43189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.42415000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.40844000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.39613999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.39728999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.39624999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/simple-hashTimes.xlsx
+++ b/simple-hashTimes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpeterson/Documents/UTexas CS/PS/cs380p-f23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F14B2FB-849A-F142-B5F9-AC82895DA27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D88EDE7-DFFE-9747-82F5-8FEAED718608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="3500" windowWidth="20280" windowHeight="17440" activeTab="2" xr2:uid="{09B1B139-03D2-1C4D-B9A6-5AC75A022D8A}"/>
+    <workbookView xWindow="2380" yWindow="3500" windowWidth="26580" windowHeight="17440" activeTab="2" xr2:uid="{09B1B139-03D2-1C4D-B9A6-5AC75A022D8A}"/>
   </bookViews>
   <sheets>
     <sheet name="hashTime" sheetId="1" r:id="rId1"/>
     <sheet name="hashGroupTime" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="compareTreeTime" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">hashTime!$B$31:$B$60</definedName>
@@ -25,12 +25,13 @@
     <definedName name="_xlchart.v1.12" hidden="1">hashTime!$C$31:$C$60</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">hashTime!$D$30</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">hashTime!$D$31:$D$60</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">hashGroupTime!$B$16:$B$21</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">hashGroupTime!$C$15</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">hashGroupTime!$C$16:$C$21</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">hashGroupTime!$D$15</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">hashGroupTime!$D$16:$D$21</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">hashTime!$C$31:$C$60</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">compareTreeTime!$B$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">compareTreeTime!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">compareTreeTime!$C$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">compareTreeTime!$C$2:$C$10</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">compareTreeTime!$D$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">compareTreeTime!$D$2:$D$10</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">hashTime!$D$30</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">hashTime!$D$31:$D$60</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">hashTime!$B$31:$B$60</definedName>
@@ -38,11 +39,12 @@
     <definedName name="_xlchart.v1.7" hidden="1">hashTime!$C$31:$C$60</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">hashTime!$D$30</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">hashTime!$D$31:$D$60</definedName>
-    <definedName name="_xlchart.v2.20" hidden="1">hashGroupTime!$B$16:$B$21</definedName>
-    <definedName name="_xlchart.v2.21" hidden="1">hashGroupTime!$C$15</definedName>
-    <definedName name="_xlchart.v2.22" hidden="1">hashGroupTime!$C$16:$C$21</definedName>
-    <definedName name="_xlchart.v2.23" hidden="1">hashGroupTime!$D$15</definedName>
-    <definedName name="_xlchart.v2.24" hidden="1">hashGroupTime!$D$16:$D$21</definedName>
+    <definedName name="_xlchart.v2.15" hidden="1">compareTreeTime!$B$1</definedName>
+    <definedName name="_xlchart.v2.16" hidden="1">compareTreeTime!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v2.17" hidden="1">compareTreeTime!$C$1</definedName>
+    <definedName name="_xlchart.v2.18" hidden="1">compareTreeTime!$C$2:$C$10</definedName>
+    <definedName name="_xlchart.v2.19" hidden="1">compareTreeTime!$D$1</definedName>
+    <definedName name="_xlchart.v2.20" hidden="1">compareTreeTime!$D$2:$D$10</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="16">
   <si>
     <t>Input File</t>
   </si>
@@ -761,6 +763,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>hash-workers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -823,6 +880,96 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>hashTime (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1497,6 +1644,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>hash-workers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1559,6 +1761,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>hashTime (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1755,6 +2012,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hashTime!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hashTime (Mac M1 Pro, 16GB Ram)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1828,6 +2096,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hashTime!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hashTime (Codio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -1918,6 +2197,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>hash-workers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1983,6 +2317,96 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>hashTime (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2026,6 +2450,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2142,6 +2597,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hashTime!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hashTime (Mac M1 Pro, 16GB Ram)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2215,6 +2681,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hashTime!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hashTime (Codio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -2305,6 +2782,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>hash-workers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2370,6 +2902,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>hashTime (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2413,6 +3007,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2679,6 +3304,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>hash-workers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2744,6 +3424,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>hashGroupTime (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3118,6 +3860,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>hash-workers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3183,6 +3980,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>hashGroupTime (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3530,6 +4382,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>hash-workers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3595,6 +4502,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>hashGroupTime (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3969,6 +4938,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>hash-workers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4034,6 +5058,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>hashGroupTime (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4117,6 +5203,636 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>compareTreeTime vs. comp-workers (coarse.txt)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compareTreeTime!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compareTreeTime (Mac M1 Pro, 16GB Ram)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>compareTreeTime!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>compareTreeTime!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.57140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58131999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46011000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42415000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40844000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39613999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39728999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39624999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51C4-FA45-B04F-3D64700B779E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compareTreeTime!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compareTreeTime (Codio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>compareTreeTime!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>compareTreeTime!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.7390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2125999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91408999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84543999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85167000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88656000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86412</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-51C4-FA45-B04F-3D64700B779E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1242805344"/>
+        <c:axId val="1399984192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1242805344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>comp-workers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1399984192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1399984192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>compareTreeTime (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1242805344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4472,6 +6188,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8503,6 +10259,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8826,6 +11098,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1EEF7D-1500-0781-ED3B-3CB3B073950A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9126,7 +11439,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9977,7 +12290,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10744,10 +13057,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36718F5-1030-AA4B-B6AA-4B2B10738B16}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10780,6 +13093,9 @@
       <c r="C2" s="1">
         <v>0.57140000000000002</v>
       </c>
+      <c r="D2" s="1">
+        <v>1.7390000000000001</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -10791,6 +13107,9 @@
       <c r="C3" s="1">
         <v>0.58131999999999995</v>
       </c>
+      <c r="D3" s="1">
+        <v>1.6392</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -10802,6 +13121,9 @@
       <c r="C4" s="1">
         <v>0.46011000000000002</v>
       </c>
+      <c r="D4" s="1">
+        <v>1.2125999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -10813,6 +13135,9 @@
       <c r="C5" s="1">
         <v>0.43189</v>
       </c>
+      <c r="D5" s="1">
+        <v>1.0845</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -10824,6 +13149,9 @@
       <c r="C6" s="1">
         <v>0.42415000000000003</v>
       </c>
+      <c r="D6" s="1">
+        <v>0.91408999999999996</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -10835,6 +13163,9 @@
       <c r="C7" s="1">
         <v>0.40844000000000003</v>
       </c>
+      <c r="D7" s="1">
+        <v>0.84543999999999997</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -10846,6 +13177,9 @@
       <c r="C8" s="1">
         <v>0.39613999999999999</v>
       </c>
+      <c r="D8" s="1">
+        <v>0.85167000000000004</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -10857,6 +13191,9 @@
       <c r="C9" s="1">
         <v>0.39728999999999998</v>
       </c>
+      <c r="D9" s="1">
+        <v>0.88656000000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -10868,16 +13205,12 @@
       <c r="C10" s="1">
         <v>0.39624999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>18</v>
+      <c r="D10" s="1">
+        <v>0.86412</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/simple-hashTimes.xlsx
+++ b/simple-hashTimes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpeterson/Documents/UTexas CS/PS/cs380p-f23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D88EDE7-DFFE-9747-82F5-8FEAED718608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EF5EBF-223E-3846-A57A-DA101FB11450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="3500" windowWidth="26580" windowHeight="17440" activeTab="2" xr2:uid="{09B1B139-03D2-1C4D-B9A6-5AC75A022D8A}"/>
+    <workbookView xWindow="2380" yWindow="3500" windowWidth="26580" windowHeight="17440" xr2:uid="{09B1B139-03D2-1C4D-B9A6-5AC75A022D8A}"/>
   </bookViews>
   <sheets>
     <sheet name="hashTime" sheetId="1" r:id="rId1"/>
@@ -18,27 +18,27 @@
     <sheet name="compareTreeTime" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">hashTime!$B$31:$B$60</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">hashTime!$C$30</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">hashTime!$B$31:$B$60</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">hashTime!$C$30</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">hashTime!$C$31:$C$60</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">hashTime!$D$30</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">hashTime!$D$31:$D$60</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">hashTime!$C$31:$C$60</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">hashTime!$B$32:$B$61</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">hashTime!$C$31</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">hashTime!$B$32:$B$61</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">hashTime!$C$31</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">hashTime!$C$32:$C$61</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">hashTime!$D$31</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">hashTime!$D$32:$D$61</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">hashTime!$C$32:$C$61</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">compareTreeTime!$B$1</definedName>
     <definedName name="_xlchart.v1.22" hidden="1">compareTreeTime!$B$2:$B$10</definedName>
     <definedName name="_xlchart.v1.23" hidden="1">compareTreeTime!$C$1</definedName>
     <definedName name="_xlchart.v1.24" hidden="1">compareTreeTime!$C$2:$C$10</definedName>
     <definedName name="_xlchart.v1.25" hidden="1">compareTreeTime!$D$1</definedName>
     <definedName name="_xlchart.v1.26" hidden="1">compareTreeTime!$D$2:$D$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">hashTime!$D$30</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">hashTime!$D$31:$D$60</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">hashTime!$B$31:$B$60</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">hashTime!$C$30</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">hashTime!$C$31:$C$60</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">hashTime!$D$30</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">hashTime!$D$31:$D$60</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">hashTime!$D$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">hashTime!$D$32:$D$61</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">hashTime!$B$32:$B$61</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">hashTime!$C$31</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">hashTime!$C$32:$C$61</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">hashTime!$D$31</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">hashTime!$D$32:$D$61</definedName>
     <definedName name="_xlchart.v2.15" hidden="1">compareTreeTime!$B$1</definedName>
     <definedName name="_xlchart.v2.16" hidden="1">compareTreeTime!$B$2:$B$10</definedName>
     <definedName name="_xlchart.v2.17" hidden="1">compareTreeTime!$C$1</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="17">
   <si>
     <t>Input File</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>compareTreeTime (Codio)</t>
+  </si>
+  <si>
+    <t>equal</t>
   </si>
 </sst>
 </file>
@@ -250,7 +253,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>hashTime!$C$30</c:f>
+              <c:f>hashTime!$C$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -285,7 +288,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(hashTime!$B$31:$B$35,hashTime!$B$37:$B$60,hashTime!$B$36)</c:f>
+              <c:f>(hashTime!$B$32:$B$36,hashTime!$B$38:$B$61,hashTime!$B$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -384,7 +387,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(hashTime!$C$31:$C$35,hashTime!$C$37:$C$60,hashTime!$C$60:$C$3631)</c:f>
+              <c:f>(hashTime!$C$32:$C$36,hashTime!$C$38:$C$61,hashTime!$C$61:$C$3632)</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3601"/>
@@ -477,6 +480,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>3.5038E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5448E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,7 +499,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>hashTime!$D$30</c:f>
+              <c:f>hashTime!$D$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -528,7 +534,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(hashTime!$B$31:$B$35,hashTime!$B$37:$B$60,hashTime!$B$36)</c:f>
+              <c:f>(hashTime!$B$32:$B$36,hashTime!$B$38:$B$61,hashTime!$B$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -627,7 +633,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(hashTime!$D$31:$D$35,hashTime!$D$37:$D$60,hashTime!$D$36)</c:f>
+              <c:f>(hashTime!$D$32:$D$36,hashTime!$D$38:$D$61,hashTime!$D$37)</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2035,7 +2041,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>hashTime!$B$31:$B$36</c:f>
+              <c:f>hashTime!$B$32:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2062,7 +2068,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hashTime!$C$31:$C$36</c:f>
+              <c:f>hashTime!$C$32:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2119,7 +2125,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>hashTime!$B$31:$B$36</c:f>
+              <c:f>hashTime!$B$32:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2146,7 +2152,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hashTime!$D$31:$D$36</c:f>
+              <c:f>hashTime!$D$32:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -10800,13 +10806,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10872,13 +10878,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10914,7 +10920,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11436,10 +11442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C55DF3-38C7-554C-AEC3-59F244130C35}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11842,35 +11848,33 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.4667E-3</v>
+      </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="1">
-        <v>1.9782000000000001E-2</v>
-      </c>
-      <c r="D31" s="1">
-        <v>5.0639000000000003E-2</v>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -11878,13 +11882,13 @@
         <v>4</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>1.9768999999999998E-2</v>
+        <v>1.9782000000000001E-2</v>
       </c>
       <c r="D32" s="1">
-        <v>3.6077999999999999E-2</v>
+        <v>5.0639000000000003E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -11892,13 +11896,13 @@
         <v>4</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>2.2658999999999999E-2</v>
+        <v>1.9768999999999998E-2</v>
       </c>
       <c r="D33" s="1">
-        <v>3.9251000000000001E-2</v>
+        <v>3.6077999999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -11906,13 +11910,13 @@
         <v>4</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1">
-        <v>2.8877E-2</v>
+        <v>2.2658999999999999E-2</v>
       </c>
       <c r="D34" s="1">
-        <v>3.1698999999999998E-2</v>
+        <v>3.9251000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -11920,13 +11924,13 @@
         <v>4</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1">
-        <v>3.2474999999999997E-2</v>
+        <v>2.8877E-2</v>
       </c>
       <c r="D35" s="1">
-        <v>3.4675999999999998E-2</v>
+        <v>3.1698999999999998E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -11934,13 +11938,13 @@
         <v>4</v>
       </c>
       <c r="B36">
-        <v>100000</v>
+        <v>16</v>
       </c>
       <c r="C36" s="1">
-        <v>3.3197999999999998E-2</v>
+        <v>3.2474999999999997E-2</v>
       </c>
       <c r="D36" s="1">
-        <v>3.8855000000000001E-2</v>
+        <v>3.4675999999999998E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -11948,13 +11952,13 @@
         <v>4</v>
       </c>
       <c r="B37">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="C37" s="1">
-        <v>5.5432000000000002E-2</v>
+        <v>3.3197999999999998E-2</v>
       </c>
       <c r="D37" s="1">
-        <v>3.4883999999999998E-2</v>
+        <v>3.8855000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -11962,13 +11966,13 @@
         <v>4</v>
       </c>
       <c r="B38">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="C38" s="1">
-        <v>3.6507999999999999E-2</v>
+        <v>5.5432000000000002E-2</v>
       </c>
       <c r="D38" s="1">
-        <v>3.7811999999999998E-2</v>
+        <v>3.4883999999999998E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -11976,13 +11980,13 @@
         <v>4</v>
       </c>
       <c r="B39">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="C39" s="1">
-        <v>3.5895999999999997E-2</v>
+        <v>3.6507999999999999E-2</v>
       </c>
       <c r="D39" s="1">
-        <v>3.5541000000000003E-2</v>
+        <v>3.7811999999999998E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -11990,13 +11994,13 @@
         <v>4</v>
       </c>
       <c r="B40">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="C40" s="1">
-        <v>3.6112999999999999E-2</v>
+        <v>3.5895999999999997E-2</v>
       </c>
       <c r="D40" s="1">
-        <v>3.9115999999999998E-2</v>
+        <v>3.5541000000000003E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -12004,13 +12008,13 @@
         <v>4</v>
       </c>
       <c r="B41">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="C41" s="1">
-        <v>3.4486999999999997E-2</v>
+        <v>3.6112999999999999E-2</v>
       </c>
       <c r="D41" s="1">
-        <v>3.6905E-2</v>
+        <v>3.9115999999999998E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -12018,13 +12022,13 @@
         <v>4</v>
       </c>
       <c r="B42">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="C42" s="1">
-        <v>3.5027000000000003E-2</v>
+        <v>3.4486999999999997E-2</v>
       </c>
       <c r="D42" s="1">
-        <v>3.9047999999999999E-2</v>
+        <v>3.6905E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -12032,13 +12036,13 @@
         <v>4</v>
       </c>
       <c r="B43">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="C43" s="1">
-        <v>3.5749999999999997E-2</v>
+        <v>3.5027000000000003E-2</v>
       </c>
       <c r="D43" s="1">
-        <v>3.422E-2</v>
+        <v>3.9047999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -12046,13 +12050,13 @@
         <v>4</v>
       </c>
       <c r="B44">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="C44" s="1">
-        <v>3.4070000000000003E-2</v>
+        <v>3.5749999999999997E-2</v>
       </c>
       <c r="D44" s="1">
-        <v>3.8087999999999997E-2</v>
+        <v>3.422E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -12060,13 +12064,13 @@
         <v>4</v>
       </c>
       <c r="B45">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="C45" s="1">
-        <v>3.415E-2</v>
+        <v>3.4070000000000003E-2</v>
       </c>
       <c r="D45" s="1">
-        <v>3.8012999999999998E-2</v>
+        <v>3.8087999999999997E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -12074,13 +12078,13 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="C46" s="1">
-        <v>3.4589000000000002E-2</v>
+        <v>3.415E-2</v>
       </c>
       <c r="D46" s="1">
-        <v>3.5187000000000003E-2</v>
+        <v>3.8012999999999998E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -12088,13 +12092,13 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="C47" s="1">
-        <v>3.3218999999999999E-2</v>
+        <v>3.4589000000000002E-2</v>
       </c>
       <c r="D47" s="1">
-        <v>3.4916000000000003E-2</v>
+        <v>3.5187000000000003E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -12102,13 +12106,13 @@
         <v>4</v>
       </c>
       <c r="B48">
-        <v>48000</v>
+        <v>44000</v>
       </c>
       <c r="C48" s="1">
-        <v>3.3729000000000002E-2</v>
+        <v>3.3218999999999999E-2</v>
       </c>
       <c r="D48" s="1">
-        <v>3.4422000000000001E-2</v>
+        <v>3.4916000000000003E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -12116,13 +12120,13 @@
         <v>4</v>
       </c>
       <c r="B49">
-        <v>52000</v>
+        <v>48000</v>
       </c>
       <c r="C49" s="1">
-        <v>3.4872E-2</v>
+        <v>3.3729000000000002E-2</v>
       </c>
       <c r="D49" s="1">
-        <v>3.594E-2</v>
+        <v>3.4422000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -12130,13 +12134,13 @@
         <v>4</v>
       </c>
       <c r="B50">
-        <v>56000</v>
+        <v>52000</v>
       </c>
       <c r="C50" s="1">
-        <v>3.381E-2</v>
+        <v>3.4872E-2</v>
       </c>
       <c r="D50" s="1">
-        <v>3.7282000000000003E-2</v>
+        <v>3.594E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -12144,13 +12148,13 @@
         <v>4</v>
       </c>
       <c r="B51">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="C51" s="1">
-        <v>3.4944999999999997E-2</v>
+        <v>3.381E-2</v>
       </c>
       <c r="D51" s="1">
-        <v>3.6230999999999999E-2</v>
+        <v>3.7282000000000003E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -12158,13 +12162,13 @@
         <v>4</v>
       </c>
       <c r="B52">
-        <v>64000</v>
+        <v>60000</v>
       </c>
       <c r="C52" s="1">
-        <v>3.4113999999999998E-2</v>
+        <v>3.4944999999999997E-2</v>
       </c>
       <c r="D52" s="1">
-        <v>3.5249000000000003E-2</v>
+        <v>3.6230999999999999E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -12172,13 +12176,13 @@
         <v>4</v>
       </c>
       <c r="B53">
-        <v>68000</v>
+        <v>64000</v>
       </c>
       <c r="C53" s="1">
-        <v>3.4902000000000002E-2</v>
+        <v>3.4113999999999998E-2</v>
       </c>
       <c r="D53" s="1">
-        <v>3.7032000000000002E-2</v>
+        <v>3.5249000000000003E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -12186,13 +12190,13 @@
         <v>4</v>
       </c>
       <c r="B54">
-        <v>72000</v>
+        <v>68000</v>
       </c>
       <c r="C54" s="1">
-        <v>3.3154000000000003E-2</v>
+        <v>3.4902000000000002E-2</v>
       </c>
       <c r="D54" s="1">
-        <v>4.5338000000000003E-2</v>
+        <v>3.7032000000000002E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -12200,13 +12204,13 @@
         <v>4</v>
       </c>
       <c r="B55">
-        <v>76000</v>
+        <v>72000</v>
       </c>
       <c r="C55" s="1">
-        <v>3.5445999999999998E-2</v>
+        <v>3.3154000000000003E-2</v>
       </c>
       <c r="D55" s="1">
-        <v>3.8406000000000003E-2</v>
+        <v>4.5338000000000003E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -12214,13 +12218,13 @@
         <v>4</v>
       </c>
       <c r="B56">
-        <v>80000</v>
+        <v>76000</v>
       </c>
       <c r="C56" s="1">
-        <v>3.5421000000000001E-2</v>
+        <v>3.5445999999999998E-2</v>
       </c>
       <c r="D56" s="1">
-        <v>3.6540000000000003E-2</v>
+        <v>3.8406000000000003E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -12228,13 +12232,13 @@
         <v>4</v>
       </c>
       <c r="B57">
-        <v>84000</v>
+        <v>80000</v>
       </c>
       <c r="C57" s="1">
-        <v>3.4957000000000002E-2</v>
+        <v>3.5421000000000001E-2</v>
       </c>
       <c r="D57" s="1">
-        <v>4.6136999999999997E-2</v>
+        <v>3.6540000000000003E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -12242,13 +12246,13 @@
         <v>4</v>
       </c>
       <c r="B58">
-        <v>88000</v>
+        <v>84000</v>
       </c>
       <c r="C58" s="1">
-        <v>3.9886999999999999E-2</v>
+        <v>3.4957000000000002E-2</v>
       </c>
       <c r="D58" s="1">
-        <v>3.5991000000000002E-2</v>
+        <v>4.6136999999999997E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -12256,13 +12260,13 @@
         <v>4</v>
       </c>
       <c r="B59">
-        <v>92000</v>
+        <v>88000</v>
       </c>
       <c r="C59" s="1">
-        <v>3.3066999999999999E-2</v>
+        <v>3.9886999999999999E-2</v>
       </c>
       <c r="D59" s="1">
-        <v>3.6503000000000001E-2</v>
+        <v>3.5991000000000002E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -12270,13 +12274,38 @@
         <v>4</v>
       </c>
       <c r="B60">
+        <v>92000</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3.3066999999999999E-2</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3.6503000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
         <v>96000</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C61" s="1">
         <v>3.5038E-2</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D61" s="1">
         <v>3.5777999999999997E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3.5448E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12289,8 +12318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF848154-B09C-7541-99EC-D60136F45A46}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView topLeftCell="A6" zoomScale="62" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13059,7 +13088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36718F5-1030-AA4B-B6AA-4B2B10738B16}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/simple-hashTimes.xlsx
+++ b/simple-hashTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpeterson/Documents/UTexas CS/PS/cs380p-f23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EF5EBF-223E-3846-A57A-DA101FB11450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE56C2C5-D9BC-2447-8D74-32908C11F0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="3500" windowWidth="26580" windowHeight="17440" xr2:uid="{09B1B139-03D2-1C4D-B9A6-5AC75A022D8A}"/>
   </bookViews>
@@ -153,9 +153,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,97 +395,97 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3601"/>
                 <c:pt idx="0">
-                  <c:v>1.9782000000000001E-2</c:v>
+                  <c:v>1.5187000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9768999999999998E-2</c:v>
+                  <c:v>3.7741999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2658999999999999E-2</c:v>
+                  <c:v>3.4825000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8877E-2</c:v>
+                  <c:v>3.7497999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2474999999999997E-2</c:v>
+                  <c:v>3.8966000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5432000000000002E-2</c:v>
+                  <c:v>3.5427E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6507999999999999E-2</c:v>
+                  <c:v>3.5390999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5895999999999997E-2</c:v>
+                  <c:v>3.6981E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6112999999999999E-2</c:v>
+                  <c:v>3.2785000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4486999999999997E-2</c:v>
+                  <c:v>3.5028999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5027000000000003E-2</c:v>
+                  <c:v>3.9273000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5749999999999997E-2</c:v>
+                  <c:v>3.5415000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4070000000000003E-2</c:v>
+                  <c:v>3.7072000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.415E-2</c:v>
+                  <c:v>3.8143999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4589000000000002E-2</c:v>
+                  <c:v>3.4348999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3218999999999999E-2</c:v>
+                  <c:v>3.5636000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.3729000000000002E-2</c:v>
+                  <c:v>3.7901999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.4872E-2</c:v>
+                  <c:v>3.9215E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.381E-2</c:v>
+                  <c:v>3.449E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.4944999999999997E-2</c:v>
+                  <c:v>3.7622999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4113999999999998E-2</c:v>
+                  <c:v>3.7316000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.4902000000000002E-2</c:v>
+                  <c:v>3.5040000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3154000000000003E-2</c:v>
+                  <c:v>3.5853000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.5445999999999998E-2</c:v>
+                  <c:v>3.7499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.5421000000000001E-2</c:v>
+                  <c:v>3.5198E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.4957000000000002E-2</c:v>
+                  <c:v>3.3508999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.9886999999999999E-2</c:v>
+                  <c:v>4.1404999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.3066999999999999E-2</c:v>
+                  <c:v>3.5269000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.5038E-2</c:v>
+                  <c:v>3.3142999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.5038E-2</c:v>
+                  <c:v>3.3142999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.5448E-2</c:v>
+                  <c:v>3.7116000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,85 +1306,85 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1.0657E-2</c:v>
+                  <c:v>1.0501E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5325000000000001E-3</c:v>
+                  <c:v>1.4113000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9139999999999999E-3</c:v>
+                  <c:v>1.5134E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5858999999999999E-3</c:v>
+                  <c:v>1.4277000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.903E-3</c:v>
+                  <c:v>1.4207E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7557E-3</c:v>
+                  <c:v>1.4568000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6963999999999998E-3</c:v>
+                  <c:v>1.4635E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9417E-3</c:v>
+                  <c:v>1.431E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9735E-3</c:v>
+                  <c:v>1.4184E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5122999999999999E-3</c:v>
+                  <c:v>2.3211E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9602E-3</c:v>
+                  <c:v>1.4055999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6641E-3</c:v>
+                  <c:v>1.4318E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9201999999999999E-3</c:v>
+                  <c:v>1.5767000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6291999999999999E-3</c:v>
+                  <c:v>1.4392000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6391999999999999E-3</c:v>
+                  <c:v>1.4503000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6092999999999999E-3</c:v>
+                  <c:v>1.5574E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5778000000000001E-3</c:v>
+                  <c:v>1.4253E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9734000000000002E-3</c:v>
+                  <c:v>1.9631000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6517000000000001E-3</c:v>
+                  <c:v>1.5072E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5712E-3</c:v>
+                  <c:v>2.8281000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.6202E-3</c:v>
+                  <c:v>1.4457999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.5763000000000001E-3</c:v>
+                  <c:v>1.6306000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.5816000000000001E-3</c:v>
+                  <c:v>1.5597E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.5525000000000001E-3</c:v>
+                  <c:v>1.4427000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.5342000000000001E-3</c:v>
+                  <c:v>1.4603000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.6502999999999999E-3</c:v>
+                  <c:v>1.4984E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.5811E-3</c:v>
+                  <c:v>1.5644000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2040,11 +2043,10 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>hashTime!$B$32:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+            <c:strRef>
+              <c:f>(hashTime!$B$32:$B$37,hashTime!$B$62)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2063,32 +2065,38 @@
                 <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="6">
+                  <c:v>equal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hashTime!$C$32:$C$37</c:f>
+              <c:f>(hashTime!$C$32:$C$37,hashTime!$C$62)</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.9782000000000001E-2</c:v>
+                  <c:v>1.5187000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9768999999999998E-2</c:v>
+                  <c:v>3.7741999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2658999999999999E-2</c:v>
+                  <c:v>3.4825000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8877E-2</c:v>
+                  <c:v>3.7497999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2474999999999997E-2</c:v>
+                  <c:v>3.8966000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3197999999999998E-2</c:v>
+                  <c:v>3.7199000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7116000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2124,11 +2132,10 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>hashTime!$B$32:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+            <c:strRef>
+              <c:f>(hashTime!$B$32:$B$37,hashTime!$B$62)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2147,15 +2154,18 @@
                 <c:pt idx="5">
                   <c:v>100000</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="6">
+                  <c:v>equal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hashTime!$D$32:$D$37</c:f>
+              <c:f>(hashTime!$D$32:$D$37,hashTime!$D$62)</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.0639000000000003E-2</c:v>
                 </c:pt>
@@ -2173,6 +2183,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.8855000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5951999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2625,11 +2638,10 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>(hashTime!$B$2:$B$5,hashTime!$B$7,hashTime!$B$28)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+            <c:strRef>
+              <c:f>(hashTime!$B$2:$B$5,hashTime!$B$7,hashTime!$B$28,hashTime!$B$29)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2648,32 +2660,38 @@
                 <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="6">
+                  <c:v>equal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(hashTime!$C$2:$C$5,hashTime!$C$7,hashTime!$C$28)</c:f>
+              <c:f>(hashTime!$C$2:$C$5,hashTime!$C$7,hashTime!$C$28,hashTime!$C$29)</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0657E-2</c:v>
+                  <c:v>1.0501E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5325000000000001E-3</c:v>
+                  <c:v>1.4113000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9139999999999999E-3</c:v>
+                  <c:v>1.5134E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5858999999999999E-3</c:v>
+                  <c:v>1.4277000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7557E-3</c:v>
+                  <c:v>1.4568000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5811E-3</c:v>
+                  <c:v>1.5644000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4402E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2709,11 +2727,10 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>(hashTime!$B$2:$B$5,hashTime!$B$7,hashTime!$B$28)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+            <c:strRef>
+              <c:f>(hashTime!$B$2:$B$5,hashTime!$B$7,hashTime!$B$28,hashTime!$B$29)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2732,15 +2749,18 @@
                 <c:pt idx="5">
                   <c:v>100</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="6">
+                  <c:v>equal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(hashTime!$D$2:$D$5,hashTime!$D$7,hashTime!$D$28)</c:f>
+              <c:f>(hashTime!$D$2:$D$5,hashTime!$D$7,hashTime!$D$28,hashTime!$D$29)</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4.2512000000000001E-2</c:v>
                 </c:pt>
@@ -2758,6 +2778,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.031E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0560999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11444,8 +11467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C55DF3-38C7-554C-AEC3-59F244130C35}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11477,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0657E-2</v>
+        <v>1.0501E-2</v>
       </c>
       <c r="D2" s="1">
         <v>4.2512000000000001E-2</v>
@@ -11491,7 +11514,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>5.5325000000000001E-3</v>
+        <v>1.4113000000000001E-3</v>
       </c>
       <c r="D3" s="1">
         <v>2.2904999999999998E-2</v>
@@ -11505,7 +11528,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>2.9139999999999999E-3</v>
+        <v>1.5134E-3</v>
       </c>
       <c r="D4" s="1">
         <v>1.5112E-2</v>
@@ -11519,7 +11542,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>1.5858999999999999E-3</v>
+        <v>1.4277000000000001E-3</v>
       </c>
       <c r="D5" s="1">
         <v>1.2825E-2</v>
@@ -11533,7 +11556,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>1.903E-3</v>
+        <v>1.4207E-3</v>
       </c>
       <c r="D6" s="1">
         <v>1.1216E-2</v>
@@ -11547,7 +11570,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>1.7557E-3</v>
+        <v>1.4568000000000001E-3</v>
       </c>
       <c r="D7" s="1">
         <v>1.0432E-2</v>
@@ -11561,7 +11584,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>2.6963999999999998E-3</v>
+        <v>1.4635E-3</v>
       </c>
       <c r="D8" s="1">
         <v>1.0401000000000001E-2</v>
@@ -11575,7 +11598,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="1">
-        <v>1.9417E-3</v>
+        <v>1.431E-3</v>
       </c>
       <c r="D9" s="1">
         <v>1.0383E-2</v>
@@ -11589,7 +11612,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="1">
-        <v>1.9735E-3</v>
+        <v>1.4184E-3</v>
       </c>
       <c r="D10" s="1">
         <v>9.1605000000000002E-3</v>
@@ -11603,7 +11626,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>2.5122999999999999E-3</v>
+        <v>2.3211E-3</v>
       </c>
       <c r="D11" s="1">
         <v>9.8226000000000008E-3</v>
@@ -11617,7 +11640,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="1">
-        <v>1.9602E-3</v>
+        <v>1.4055999999999999E-3</v>
       </c>
       <c r="D12" s="1">
         <v>1.1247E-2</v>
@@ -11631,7 +11654,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="1">
-        <v>1.6641E-3</v>
+        <v>1.4318E-3</v>
       </c>
       <c r="D13" s="1">
         <v>9.7287999999999993E-3</v>
@@ -11645,7 +11668,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="1">
-        <v>1.9201999999999999E-3</v>
+        <v>1.5767000000000001E-3</v>
       </c>
       <c r="D14" s="1">
         <v>9.8584999999999992E-3</v>
@@ -11659,7 +11682,7 @@
         <v>48</v>
       </c>
       <c r="C15" s="1">
-        <v>1.6291999999999999E-3</v>
+        <v>1.4392000000000001E-3</v>
       </c>
       <c r="D15" s="1">
         <v>9.5873E-3</v>
@@ -11673,7 +11696,7 @@
         <v>52</v>
       </c>
       <c r="C16" s="1">
-        <v>1.6391999999999999E-3</v>
+        <v>1.4503000000000001E-3</v>
       </c>
       <c r="D16" s="1">
         <v>1.0734E-2</v>
@@ -11687,7 +11710,7 @@
         <v>56</v>
       </c>
       <c r="C17" s="1">
-        <v>1.6092999999999999E-3</v>
+        <v>1.5574E-3</v>
       </c>
       <c r="D17" s="1">
         <v>1.0293999999999999E-2</v>
@@ -11701,7 +11724,7 @@
         <v>60</v>
       </c>
       <c r="C18" s="1">
-        <v>1.5778000000000001E-3</v>
+        <v>1.4253E-3</v>
       </c>
       <c r="D18" s="1">
         <v>1.1722E-2</v>
@@ -11715,7 +11738,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="1">
-        <v>1.9734000000000002E-3</v>
+        <v>1.9631000000000002E-3</v>
       </c>
       <c r="D19" s="1">
         <v>1.1117999999999999E-2</v>
@@ -11729,7 +11752,7 @@
         <v>68</v>
       </c>
       <c r="C20" s="1">
-        <v>1.6517000000000001E-3</v>
+        <v>1.5072E-3</v>
       </c>
       <c r="D20" s="1">
         <v>1.3572000000000001E-2</v>
@@ -11743,7 +11766,7 @@
         <v>72</v>
       </c>
       <c r="C21" s="1">
-        <v>1.5712E-3</v>
+        <v>2.8281000000000001E-3</v>
       </c>
       <c r="D21" s="1">
         <v>1.8161E-2</v>
@@ -11757,7 +11780,7 @@
         <v>76</v>
       </c>
       <c r="C22" s="1">
-        <v>1.6202E-3</v>
+        <v>1.4457999999999999E-3</v>
       </c>
       <c r="D22" s="1">
         <v>1.2607999999999999E-2</v>
@@ -11771,7 +11794,7 @@
         <v>80</v>
       </c>
       <c r="C23" s="1">
-        <v>1.5763000000000001E-3</v>
+        <v>1.6306000000000001E-3</v>
       </c>
       <c r="D23" s="1">
         <v>9.3416999999999997E-3</v>
@@ -11785,7 +11808,7 @@
         <v>84</v>
       </c>
       <c r="C24" s="1">
-        <v>1.5816000000000001E-3</v>
+        <v>1.5597E-3</v>
       </c>
       <c r="D24" s="1">
         <v>1.2322E-2</v>
@@ -11799,7 +11822,7 @@
         <v>88</v>
       </c>
       <c r="C25" s="1">
-        <v>1.5525000000000001E-3</v>
+        <v>1.4427000000000001E-3</v>
       </c>
       <c r="D25" s="1">
         <v>9.8945000000000005E-3</v>
@@ -11813,7 +11836,7 @@
         <v>92</v>
       </c>
       <c r="C26" s="1">
-        <v>1.5342000000000001E-3</v>
+        <v>1.4603000000000001E-3</v>
       </c>
       <c r="D26" s="1">
         <v>8.6639000000000004E-3</v>
@@ -11827,7 +11850,7 @@
         <v>96</v>
       </c>
       <c r="C27" s="1">
-        <v>1.6502999999999999E-3</v>
+        <v>1.4984E-3</v>
       </c>
       <c r="D27" s="1">
         <v>9.9320999999999993E-3</v>
@@ -11841,7 +11864,7 @@
         <v>100</v>
       </c>
       <c r="C28" s="1">
-        <v>1.5811E-3</v>
+        <v>1.5644000000000001E-3</v>
       </c>
       <c r="D28" s="1">
         <v>1.031E-2</v>
@@ -11851,13 +11874,15 @@
       <c r="A29" t="s">
         <v>3</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="1">
-        <v>1.4667E-3</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>1.4402E-3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.0560999999999999E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
@@ -11885,7 +11910,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>1.9782000000000001E-2</v>
+        <v>1.5187000000000001E-2</v>
       </c>
       <c r="D32" s="1">
         <v>5.0639000000000003E-2</v>
@@ -11899,7 +11924,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>1.9768999999999998E-2</v>
+        <v>3.7741999999999998E-2</v>
       </c>
       <c r="D33" s="1">
         <v>3.6077999999999999E-2</v>
@@ -11913,7 +11938,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="1">
-        <v>2.2658999999999999E-2</v>
+        <v>3.4825000000000002E-2</v>
       </c>
       <c r="D34" s="1">
         <v>3.9251000000000001E-2</v>
@@ -11927,7 +11952,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="1">
-        <v>2.8877E-2</v>
+        <v>3.7497999999999997E-2</v>
       </c>
       <c r="D35" s="1">
         <v>3.1698999999999998E-2</v>
@@ -11941,7 +11966,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="1">
-        <v>3.2474999999999997E-2</v>
+        <v>3.8966000000000001E-2</v>
       </c>
       <c r="D36" s="1">
         <v>3.4675999999999998E-2</v>
@@ -11955,7 +11980,7 @@
         <v>100000</v>
       </c>
       <c r="C37" s="1">
-        <v>3.3197999999999998E-2</v>
+        <v>3.7199000000000003E-2</v>
       </c>
       <c r="D37" s="1">
         <v>3.8855000000000001E-2</v>
@@ -11969,7 +11994,7 @@
         <v>4000</v>
       </c>
       <c r="C38" s="1">
-        <v>5.5432000000000002E-2</v>
+        <v>3.5427E-2</v>
       </c>
       <c r="D38" s="1">
         <v>3.4883999999999998E-2</v>
@@ -11983,7 +12008,7 @@
         <v>8000</v>
       </c>
       <c r="C39" s="1">
-        <v>3.6507999999999999E-2</v>
+        <v>3.5390999999999999E-2</v>
       </c>
       <c r="D39" s="1">
         <v>3.7811999999999998E-2</v>
@@ -11997,7 +12022,7 @@
         <v>12000</v>
       </c>
       <c r="C40" s="1">
-        <v>3.5895999999999997E-2</v>
+        <v>3.6981E-2</v>
       </c>
       <c r="D40" s="1">
         <v>3.5541000000000003E-2</v>
@@ -12011,7 +12036,7 @@
         <v>16000</v>
       </c>
       <c r="C41" s="1">
-        <v>3.6112999999999999E-2</v>
+        <v>3.2785000000000002E-2</v>
       </c>
       <c r="D41" s="1">
         <v>3.9115999999999998E-2</v>
@@ -12025,7 +12050,7 @@
         <v>20000</v>
       </c>
       <c r="C42" s="1">
-        <v>3.4486999999999997E-2</v>
+        <v>3.5028999999999998E-2</v>
       </c>
       <c r="D42" s="1">
         <v>3.6905E-2</v>
@@ -12039,7 +12064,7 @@
         <v>24000</v>
       </c>
       <c r="C43" s="1">
-        <v>3.5027000000000003E-2</v>
+        <v>3.9273000000000002E-2</v>
       </c>
       <c r="D43" s="1">
         <v>3.9047999999999999E-2</v>
@@ -12053,7 +12078,7 @@
         <v>28000</v>
       </c>
       <c r="C44" s="1">
-        <v>3.5749999999999997E-2</v>
+        <v>3.5415000000000002E-2</v>
       </c>
       <c r="D44" s="1">
         <v>3.422E-2</v>
@@ -12067,7 +12092,7 @@
         <v>32000</v>
       </c>
       <c r="C45" s="1">
-        <v>3.4070000000000003E-2</v>
+        <v>3.7072000000000001E-2</v>
       </c>
       <c r="D45" s="1">
         <v>3.8087999999999997E-2</v>
@@ -12081,7 +12106,7 @@
         <v>36000</v>
       </c>
       <c r="C46" s="1">
-        <v>3.415E-2</v>
+        <v>3.8143999999999997E-2</v>
       </c>
       <c r="D46" s="1">
         <v>3.8012999999999998E-2</v>
@@ -12095,7 +12120,7 @@
         <v>40000</v>
       </c>
       <c r="C47" s="1">
-        <v>3.4589000000000002E-2</v>
+        <v>3.4348999999999998E-2</v>
       </c>
       <c r="D47" s="1">
         <v>3.5187000000000003E-2</v>
@@ -12109,7 +12134,7 @@
         <v>44000</v>
       </c>
       <c r="C48" s="1">
-        <v>3.3218999999999999E-2</v>
+        <v>3.5636000000000001E-2</v>
       </c>
       <c r="D48" s="1">
         <v>3.4916000000000003E-2</v>
@@ -12123,7 +12148,7 @@
         <v>48000</v>
       </c>
       <c r="C49" s="1">
-        <v>3.3729000000000002E-2</v>
+        <v>3.7901999999999998E-2</v>
       </c>
       <c r="D49" s="1">
         <v>3.4422000000000001E-2</v>
@@ -12137,7 +12162,7 @@
         <v>52000</v>
       </c>
       <c r="C50" s="1">
-        <v>3.4872E-2</v>
+        <v>3.9215E-2</v>
       </c>
       <c r="D50" s="1">
         <v>3.594E-2</v>
@@ -12151,7 +12176,7 @@
         <v>56000</v>
       </c>
       <c r="C51" s="1">
-        <v>3.381E-2</v>
+        <v>3.449E-2</v>
       </c>
       <c r="D51" s="1">
         <v>3.7282000000000003E-2</v>
@@ -12165,7 +12190,7 @@
         <v>60000</v>
       </c>
       <c r="C52" s="1">
-        <v>3.4944999999999997E-2</v>
+        <v>3.7622999999999997E-2</v>
       </c>
       <c r="D52" s="1">
         <v>3.6230999999999999E-2</v>
@@ -12179,7 +12204,7 @@
         <v>64000</v>
       </c>
       <c r="C53" s="1">
-        <v>3.4113999999999998E-2</v>
+        <v>3.7316000000000002E-2</v>
       </c>
       <c r="D53" s="1">
         <v>3.5249000000000003E-2</v>
@@ -12193,7 +12218,7 @@
         <v>68000</v>
       </c>
       <c r="C54" s="1">
-        <v>3.4902000000000002E-2</v>
+        <v>3.5040000000000002E-2</v>
       </c>
       <c r="D54" s="1">
         <v>3.7032000000000002E-2</v>
@@ -12207,7 +12232,7 @@
         <v>72000</v>
       </c>
       <c r="C55" s="1">
-        <v>3.3154000000000003E-2</v>
+        <v>3.5853000000000003E-2</v>
       </c>
       <c r="D55" s="1">
         <v>4.5338000000000003E-2</v>
@@ -12221,7 +12246,7 @@
         <v>76000</v>
       </c>
       <c r="C56" s="1">
-        <v>3.5445999999999998E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="D56" s="1">
         <v>3.8406000000000003E-2</v>
@@ -12235,7 +12260,7 @@
         <v>80000</v>
       </c>
       <c r="C57" s="1">
-        <v>3.5421000000000001E-2</v>
+        <v>3.5198E-2</v>
       </c>
       <c r="D57" s="1">
         <v>3.6540000000000003E-2</v>
@@ -12249,7 +12274,7 @@
         <v>84000</v>
       </c>
       <c r="C58" s="1">
-        <v>3.4957000000000002E-2</v>
+        <v>3.3508999999999997E-2</v>
       </c>
       <c r="D58" s="1">
         <v>4.6136999999999997E-2</v>
@@ -12263,7 +12288,7 @@
         <v>88000</v>
       </c>
       <c r="C59" s="1">
-        <v>3.9886999999999999E-2</v>
+        <v>4.1404999999999997E-2</v>
       </c>
       <c r="D59" s="1">
         <v>3.5991000000000002E-2</v>
@@ -12277,7 +12302,7 @@
         <v>92000</v>
       </c>
       <c r="C60" s="1">
-        <v>3.3066999999999999E-2</v>
+        <v>3.5269000000000002E-2</v>
       </c>
       <c r="D60" s="1">
         <v>3.6503000000000001E-2</v>
@@ -12291,7 +12316,7 @@
         <v>96000</v>
       </c>
       <c r="C61" s="1">
-        <v>3.5038E-2</v>
+        <v>3.3142999999999999E-2</v>
       </c>
       <c r="D61" s="1">
         <v>3.5777999999999997E-2</v>
@@ -12301,15 +12326,19 @@
       <c r="A62" t="s">
         <v>4</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C62" s="1">
-        <v>3.5448E-2</v>
+        <v>3.7116000000000003E-2</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3.5951999999999998E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/simple-hashTimes.xlsx
+++ b/simple-hashTimes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpeterson/Documents/UTexas CS/PS/cs380p-f23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE56C2C5-D9BC-2447-8D74-32908C11F0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FF6035-43F9-BD4C-A5AB-7E12A00C21F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="3500" windowWidth="26580" windowHeight="17440" xr2:uid="{09B1B139-03D2-1C4D-B9A6-5AC75A022D8A}"/>
+    <workbookView xWindow="2380" yWindow="3500" windowWidth="31980" windowHeight="17440" activeTab="2" xr2:uid="{09B1B139-03D2-1C4D-B9A6-5AC75A022D8A}"/>
   </bookViews>
   <sheets>
     <sheet name="hashTime" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,11 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">hashTime!$B$32:$B$61</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">hashTime!$C$31</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">hashTime!$B$32:$B$61</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">hashTime!$C$31</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">hashTime!$C$32:$C$61</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">hashTime!$D$31</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">hashTime!$D$32:$D$61</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">compareTreeTime!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">compareTreeTime!$C$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">compareTreeTime!$C$2:$C$10</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">compareTreeTime!$D$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">compareTreeTime!$D$2:$D$10</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">hashTime!$C$32:$C$61</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">compareTreeTime!$B$1</definedName>
     <definedName name="_xlchart.v1.22" hidden="1">compareTreeTime!$B$2:$B$10</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="17">
   <si>
     <t>Input File</t>
   </si>
@@ -641,94 +641,94 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>5.0639000000000003E-2</c:v>
+                  <c:v>4.4693999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6077999999999999E-2</c:v>
+                  <c:v>3.5922000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9251000000000001E-2</c:v>
+                  <c:v>3.4011E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1698999999999998E-2</c:v>
+                  <c:v>3.4283000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4675999999999998E-2</c:v>
+                  <c:v>3.4386E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4883999999999998E-2</c:v>
+                  <c:v>3.4766999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7811999999999998E-2</c:v>
+                  <c:v>3.4319000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5541000000000003E-2</c:v>
+                  <c:v>3.4313999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9115999999999998E-2</c:v>
+                  <c:v>3.4377999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6905E-2</c:v>
+                  <c:v>3.5809000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9047999999999999E-2</c:v>
+                  <c:v>3.5048999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.422E-2</c:v>
+                  <c:v>3.4326000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8087999999999997E-2</c:v>
+                  <c:v>3.4787999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8012999999999998E-2</c:v>
+                  <c:v>3.5021999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5187000000000003E-2</c:v>
+                  <c:v>3.3480999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4916000000000003E-2</c:v>
+                  <c:v>3.4229000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.4422000000000001E-2</c:v>
+                  <c:v>3.5403999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.594E-2</c:v>
+                  <c:v>3.4778999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.7282000000000003E-2</c:v>
+                  <c:v>3.4854000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.6230999999999999E-2</c:v>
+                  <c:v>3.4099999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.5249000000000003E-2</c:v>
+                  <c:v>3.3873E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.7032000000000002E-2</c:v>
+                  <c:v>3.5573E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.5338000000000003E-2</c:v>
+                  <c:v>3.4175999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.8406000000000003E-2</c:v>
+                  <c:v>3.5364E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.6540000000000003E-2</c:v>
+                  <c:v>3.4951000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.6136999999999997E-2</c:v>
+                  <c:v>3.4445000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5991000000000002E-2</c:v>
+                  <c:v>3.4439999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6503000000000001E-2</c:v>
+                  <c:v>3.4252999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.5777999999999997E-2</c:v>
+                  <c:v>4.0576000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8855000000000001E-2</c:v>
+                  <c:v>3.4412999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,85 +1531,85 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>4.2512000000000001E-2</c:v>
+                  <c:v>4.1061E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2904999999999998E-2</c:v>
+                  <c:v>9.2315999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5112E-2</c:v>
+                  <c:v>1.0473E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2825E-2</c:v>
+                  <c:v>9.5630999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1216E-2</c:v>
+                  <c:v>9.5449000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0432E-2</c:v>
+                  <c:v>9.0340000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0401000000000001E-2</c:v>
+                  <c:v>1.0396000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0383E-2</c:v>
+                  <c:v>9.5639999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.1605000000000002E-3</c:v>
+                  <c:v>9.0655000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8226000000000008E-3</c:v>
+                  <c:v>9.3305000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1247E-2</c:v>
+                  <c:v>9.8545000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.7287999999999993E-3</c:v>
+                  <c:v>1.2128E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.8584999999999992E-3</c:v>
+                  <c:v>1.0286999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.5873E-3</c:v>
+                  <c:v>1.0152E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0734E-2</c:v>
+                  <c:v>1.0921999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0293999999999999E-2</c:v>
+                  <c:v>1.0305999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1722E-2</c:v>
+                  <c:v>9.0013000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1117999999999999E-2</c:v>
+                  <c:v>9.5330999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3572000000000001E-2</c:v>
+                  <c:v>1.0602E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8161E-2</c:v>
+                  <c:v>1.4052E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2607999999999999E-2</c:v>
+                  <c:v>1.1065E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.3416999999999997E-3</c:v>
+                  <c:v>9.2420999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2322E-2</c:v>
+                  <c:v>9.6901000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.8945000000000005E-3</c:v>
+                  <c:v>1.0127000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.6639000000000004E-3</c:v>
+                  <c:v>8.5375E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.9320999999999993E-3</c:v>
+                  <c:v>9.6626000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.031E-2</c:v>
+                  <c:v>9.7756000000000006E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2167,25 +2167,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.0639000000000003E-2</c:v>
+                  <c:v>4.4693999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6077999999999999E-2</c:v>
+                  <c:v>3.5922000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9251000000000001E-2</c:v>
+                  <c:v>3.4011E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1698999999999998E-2</c:v>
+                  <c:v>3.4283000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4675999999999998E-2</c:v>
+                  <c:v>3.4386E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8855000000000001E-2</c:v>
+                  <c:v>3.4412999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5951999999999998E-2</c:v>
+                  <c:v>3.6327999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2762,25 +2762,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.2512000000000001E-2</c:v>
+                  <c:v>4.1061E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2904999999999998E-2</c:v>
+                  <c:v>9.2315999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5112E-2</c:v>
+                  <c:v>1.0473E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2825E-2</c:v>
+                  <c:v>9.5630999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0432E-2</c:v>
+                  <c:v>9.0340000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.031E-2</c:v>
+                  <c:v>9.7756000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0560999999999999E-2</c:v>
+                  <c:v>1.4149E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5339,8 +5339,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5357,35 +5358,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>compareTreeTime!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compareTreeTime!$B$2:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5413,46 +5399,51 @@
                 <c:pt idx="8">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>equal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compareTreeTime!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.55456000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59021999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48563000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44772000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42369000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40309</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39877000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38662999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39069999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>compareTreeTime!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.57140000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.58131999999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.46011000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.43189</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.42415000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.40844000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.39613999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.39728999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.39624999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-51C4-FA45-B04F-3D64700B779E}"/>
@@ -5474,35 +5465,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>compareTreeTime!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compareTreeTime!$B$2:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5530,46 +5506,48 @@
                 <c:pt idx="8">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>equal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compareTreeTime!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2125999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91408999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84543999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85167000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88656000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86412</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>compareTreeTime!$D$2:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.7390000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6392</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2125999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0845</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.91408999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.84543999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.85167000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88656000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86412</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-51C4-FA45-B04F-3D64700B779E}"/>
@@ -5584,10 +5562,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="1242805344"/>
         <c:axId val="1399984192"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:barChart>
+      <c:catAx>
         <c:axId val="1242805344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -5702,8 +5681,11 @@
         </c:txPr>
         <c:crossAx val="1399984192"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1399984192"/>
         <c:scaling>
@@ -5819,7 +5801,7 @@
         </c:txPr>
         <c:crossAx val="1242805344"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -11131,15 +11113,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11467,8 +11449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C55DF3-38C7-554C-AEC3-59F244130C35}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A33" zoomScale="113" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11503,7 +11485,7 @@
         <v>1.0501E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>4.2512000000000001E-2</v>
+        <v>4.1061E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -11517,7 +11499,7 @@
         <v>1.4113000000000001E-3</v>
       </c>
       <c r="D3" s="1">
-        <v>2.2904999999999998E-2</v>
+        <v>9.2315999999999995E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -11531,7 +11513,7 @@
         <v>1.5134E-3</v>
       </c>
       <c r="D4" s="1">
-        <v>1.5112E-2</v>
+        <v>1.0473E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -11545,7 +11527,7 @@
         <v>1.4277000000000001E-3</v>
       </c>
       <c r="D5" s="1">
-        <v>1.2825E-2</v>
+        <v>9.5630999999999997E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -11559,7 +11541,7 @@
         <v>1.4207E-3</v>
       </c>
       <c r="D6" s="1">
-        <v>1.1216E-2</v>
+        <v>9.5449000000000003E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -11573,7 +11555,7 @@
         <v>1.4568000000000001E-3</v>
       </c>
       <c r="D7" s="1">
-        <v>1.0432E-2</v>
+        <v>9.0340000000000004E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -11587,7 +11569,7 @@
         <v>1.4635E-3</v>
       </c>
       <c r="D8" s="1">
-        <v>1.0401000000000001E-2</v>
+        <v>1.0396000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -11601,7 +11583,7 @@
         <v>1.431E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>1.0383E-2</v>
+        <v>9.5639999999999996E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -11615,7 +11597,7 @@
         <v>1.4184E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>9.1605000000000002E-3</v>
+        <v>9.0655000000000006E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -11629,7 +11611,7 @@
         <v>2.3211E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>9.8226000000000008E-3</v>
+        <v>9.3305000000000003E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -11643,7 +11625,7 @@
         <v>1.4055999999999999E-3</v>
       </c>
       <c r="D12" s="1">
-        <v>1.1247E-2</v>
+        <v>9.8545000000000004E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -11657,7 +11639,7 @@
         <v>1.4318E-3</v>
       </c>
       <c r="D13" s="1">
-        <v>9.7287999999999993E-3</v>
+        <v>1.2128E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -11671,7 +11653,7 @@
         <v>1.5767000000000001E-3</v>
       </c>
       <c r="D14" s="1">
-        <v>9.8584999999999992E-3</v>
+        <v>1.0286999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -11685,7 +11667,7 @@
         <v>1.4392000000000001E-3</v>
       </c>
       <c r="D15" s="1">
-        <v>9.5873E-3</v>
+        <v>1.0152E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -11699,7 +11681,7 @@
         <v>1.4503000000000001E-3</v>
       </c>
       <c r="D16" s="1">
-        <v>1.0734E-2</v>
+        <v>1.0921999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -11713,7 +11695,7 @@
         <v>1.5574E-3</v>
       </c>
       <c r="D17" s="1">
-        <v>1.0293999999999999E-2</v>
+        <v>1.0305999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -11727,7 +11709,7 @@
         <v>1.4253E-3</v>
       </c>
       <c r="D18" s="1">
-        <v>1.1722E-2</v>
+        <v>9.0013000000000003E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -11741,7 +11723,7 @@
         <v>1.9631000000000002E-3</v>
       </c>
       <c r="D19" s="1">
-        <v>1.1117999999999999E-2</v>
+        <v>9.5330999999999992E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -11755,7 +11737,7 @@
         <v>1.5072E-3</v>
       </c>
       <c r="D20" s="1">
-        <v>1.3572000000000001E-2</v>
+        <v>1.0602E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -11769,7 +11751,7 @@
         <v>2.8281000000000001E-3</v>
       </c>
       <c r="D21" s="1">
-        <v>1.8161E-2</v>
+        <v>1.4052E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -11783,7 +11765,7 @@
         <v>1.4457999999999999E-3</v>
       </c>
       <c r="D22" s="1">
-        <v>1.2607999999999999E-2</v>
+        <v>1.1065E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -11797,7 +11779,7 @@
         <v>1.6306000000000001E-3</v>
       </c>
       <c r="D23" s="1">
-        <v>9.3416999999999997E-3</v>
+        <v>9.2420999999999996E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -11811,7 +11793,7 @@
         <v>1.5597E-3</v>
       </c>
       <c r="D24" s="1">
-        <v>1.2322E-2</v>
+        <v>9.6901000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -11825,7 +11807,7 @@
         <v>1.4427000000000001E-3</v>
       </c>
       <c r="D25" s="1">
-        <v>9.8945000000000005E-3</v>
+        <v>1.0127000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -11839,7 +11821,7 @@
         <v>1.4603000000000001E-3</v>
       </c>
       <c r="D26" s="1">
-        <v>8.6639000000000004E-3</v>
+        <v>8.5375E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -11853,7 +11835,7 @@
         <v>1.4984E-3</v>
       </c>
       <c r="D27" s="1">
-        <v>9.9320999999999993E-3</v>
+        <v>9.6626000000000004E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -11867,7 +11849,7 @@
         <v>1.5644000000000001E-3</v>
       </c>
       <c r="D28" s="1">
-        <v>1.031E-2</v>
+        <v>9.7756000000000006E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -11881,7 +11863,7 @@
         <v>1.4402E-3</v>
       </c>
       <c r="D29" s="1">
-        <v>1.0560999999999999E-2</v>
+        <v>1.4149E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -11913,7 +11895,7 @@
         <v>1.5187000000000001E-2</v>
       </c>
       <c r="D32" s="1">
-        <v>5.0639000000000003E-2</v>
+        <v>4.4693999999999998E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -11927,7 +11909,7 @@
         <v>3.7741999999999998E-2</v>
       </c>
       <c r="D33" s="1">
-        <v>3.6077999999999999E-2</v>
+        <v>3.5922000000000003E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -11941,7 +11923,7 @@
         <v>3.4825000000000002E-2</v>
       </c>
       <c r="D34" s="1">
-        <v>3.9251000000000001E-2</v>
+        <v>3.4011E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -11955,7 +11937,7 @@
         <v>3.7497999999999997E-2</v>
       </c>
       <c r="D35" s="1">
-        <v>3.1698999999999998E-2</v>
+        <v>3.4283000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -11969,7 +11951,7 @@
         <v>3.8966000000000001E-2</v>
       </c>
       <c r="D36" s="1">
-        <v>3.4675999999999998E-2</v>
+        <v>3.4386E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -11983,7 +11965,7 @@
         <v>3.7199000000000003E-2</v>
       </c>
       <c r="D37" s="1">
-        <v>3.8855000000000001E-2</v>
+        <v>3.4412999999999999E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -11997,7 +11979,7 @@
         <v>3.5427E-2</v>
       </c>
       <c r="D38" s="1">
-        <v>3.4883999999999998E-2</v>
+        <v>3.4766999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -12011,7 +11993,7 @@
         <v>3.5390999999999999E-2</v>
       </c>
       <c r="D39" s="1">
-        <v>3.7811999999999998E-2</v>
+        <v>3.4319000000000002E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -12025,7 +12007,7 @@
         <v>3.6981E-2</v>
       </c>
       <c r="D40" s="1">
-        <v>3.5541000000000003E-2</v>
+        <v>3.4313999999999997E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -12039,7 +12021,7 @@
         <v>3.2785000000000002E-2</v>
       </c>
       <c r="D41" s="1">
-        <v>3.9115999999999998E-2</v>
+        <v>3.4377999999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -12053,7 +12035,7 @@
         <v>3.5028999999999998E-2</v>
       </c>
       <c r="D42" s="1">
-        <v>3.6905E-2</v>
+        <v>3.5809000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -12067,7 +12049,7 @@
         <v>3.9273000000000002E-2</v>
       </c>
       <c r="D43" s="1">
-        <v>3.9047999999999999E-2</v>
+        <v>3.5048999999999997E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -12081,7 +12063,7 @@
         <v>3.5415000000000002E-2</v>
       </c>
       <c r="D44" s="1">
-        <v>3.422E-2</v>
+        <v>3.4326000000000002E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -12095,7 +12077,7 @@
         <v>3.7072000000000001E-2</v>
       </c>
       <c r="D45" s="1">
-        <v>3.8087999999999997E-2</v>
+        <v>3.4787999999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -12109,7 +12091,7 @@
         <v>3.8143999999999997E-2</v>
       </c>
       <c r="D46" s="1">
-        <v>3.8012999999999998E-2</v>
+        <v>3.5021999999999998E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -12123,7 +12105,7 @@
         <v>3.4348999999999998E-2</v>
       </c>
       <c r="D47" s="1">
-        <v>3.5187000000000003E-2</v>
+        <v>3.3480999999999997E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -12137,7 +12119,7 @@
         <v>3.5636000000000001E-2</v>
       </c>
       <c r="D48" s="1">
-        <v>3.4916000000000003E-2</v>
+        <v>3.4229000000000002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -12151,7 +12133,7 @@
         <v>3.7901999999999998E-2</v>
       </c>
       <c r="D49" s="1">
-        <v>3.4422000000000001E-2</v>
+        <v>3.5403999999999998E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -12165,7 +12147,7 @@
         <v>3.9215E-2</v>
       </c>
       <c r="D50" s="1">
-        <v>3.594E-2</v>
+        <v>3.4778999999999997E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -12179,7 +12161,7 @@
         <v>3.449E-2</v>
       </c>
       <c r="D51" s="1">
-        <v>3.7282000000000003E-2</v>
+        <v>3.4854000000000003E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -12193,7 +12175,7 @@
         <v>3.7622999999999997E-2</v>
       </c>
       <c r="D52" s="1">
-        <v>3.6230999999999999E-2</v>
+        <v>3.4099999999999998E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -12207,7 +12189,7 @@
         <v>3.7316000000000002E-2</v>
       </c>
       <c r="D53" s="1">
-        <v>3.5249000000000003E-2</v>
+        <v>3.3873E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -12221,7 +12203,7 @@
         <v>3.5040000000000002E-2</v>
       </c>
       <c r="D54" s="1">
-        <v>3.7032000000000002E-2</v>
+        <v>3.5573E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -12235,7 +12217,7 @@
         <v>3.5853000000000003E-2</v>
       </c>
       <c r="D55" s="1">
-        <v>4.5338000000000003E-2</v>
+        <v>3.4175999999999998E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -12249,7 +12231,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="D56" s="1">
-        <v>3.8406000000000003E-2</v>
+        <v>3.5364E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -12263,7 +12245,7 @@
         <v>3.5198E-2</v>
       </c>
       <c r="D57" s="1">
-        <v>3.6540000000000003E-2</v>
+        <v>3.4951000000000003E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -12277,7 +12259,7 @@
         <v>3.3508999999999997E-2</v>
       </c>
       <c r="D58" s="1">
-        <v>4.6136999999999997E-2</v>
+        <v>3.4445000000000003E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -12291,7 +12273,7 @@
         <v>4.1404999999999997E-2</v>
       </c>
       <c r="D59" s="1">
-        <v>3.5991000000000002E-2</v>
+        <v>3.4439999999999998E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -12305,7 +12287,7 @@
         <v>3.5269000000000002E-2</v>
       </c>
       <c r="D60" s="1">
-        <v>3.6503000000000001E-2</v>
+        <v>3.4252999999999999E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -12319,7 +12301,7 @@
         <v>3.3142999999999999E-2</v>
       </c>
       <c r="D61" s="1">
-        <v>3.5777999999999997E-2</v>
+        <v>4.0576000000000001E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -12333,7 +12315,7 @@
         <v>3.7116000000000003E-2</v>
       </c>
       <c r="D62" s="1">
-        <v>3.5951999999999998E-2</v>
+        <v>3.6327999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12347,7 +12329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF848154-B09C-7541-99EC-D60136F45A46}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="62" workbookViewId="0">
+    <sheetView zoomScale="62" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
@@ -13115,10 +13097,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36718F5-1030-AA4B-B6AA-4B2B10738B16}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13149,7 +13131,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>0.57140000000000002</v>
+        <v>0.55456000000000005</v>
       </c>
       <c r="D2" s="1">
         <v>1.7390000000000001</v>
@@ -13163,7 +13145,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>0.58131999999999995</v>
+        <v>0.59021999999999997</v>
       </c>
       <c r="D3" s="1">
         <v>1.6392</v>
@@ -13177,7 +13159,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>0.46011000000000002</v>
+        <v>0.48563000000000001</v>
       </c>
       <c r="D4" s="1">
         <v>1.2125999999999999</v>
@@ -13191,7 +13173,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>0.43189</v>
+        <v>0.44772000000000001</v>
       </c>
       <c r="D5" s="1">
         <v>1.0845</v>
@@ -13205,7 +13187,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>0.42415000000000003</v>
+        <v>0.42369000000000001</v>
       </c>
       <c r="D6" s="1">
         <v>0.91408999999999996</v>
@@ -13219,7 +13201,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>0.40844000000000003</v>
+        <v>0.40619</v>
       </c>
       <c r="D7" s="1">
         <v>0.84543999999999997</v>
@@ -13233,7 +13215,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>0.39613999999999999</v>
+        <v>0.40309</v>
       </c>
       <c r="D8" s="1">
         <v>0.85167000000000004</v>
@@ -13247,7 +13229,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>0.39728999999999998</v>
+        <v>0.39877000000000001</v>
       </c>
       <c r="D9" s="1">
         <v>0.88656000000000001</v>
@@ -13261,10 +13243,21 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>0.39624999999999999</v>
+        <v>0.38662999999999997</v>
       </c>
       <c r="D10" s="1">
         <v>0.86412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.39069999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/simple-hashTimes.xlsx
+++ b/simple-hashTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpeterson/Documents/UTexas CS/PS/cs380p-f23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FF6035-43F9-BD4C-A5AB-7E12A00C21F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE56CA5-F3C9-0945-8820-A54BA5713466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="3500" windowWidth="31980" windowHeight="17440" activeTab="2" xr2:uid="{09B1B139-03D2-1C4D-B9A6-5AC75A022D8A}"/>
   </bookViews>
@@ -5412,34 +5412,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.55456000000000005</c:v>
+                  <c:v>0.55376000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59021999999999997</c:v>
+                  <c:v>0.58762999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48563000000000001</c:v>
+                  <c:v>0.46259</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44772000000000001</c:v>
+                  <c:v>0.42957000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42369000000000001</c:v>
+                  <c:v>0.41237000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40619</c:v>
+                  <c:v>0.41735</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40309</c:v>
+                  <c:v>0.40505999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39877000000000001</c:v>
+                  <c:v>0.40445999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38662999999999997</c:v>
+                  <c:v>0.39661999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39069999999999999</c:v>
+                  <c:v>0.38274999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5519,31 +5519,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.7390000000000001</c:v>
+                  <c:v>1.7737000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6392</c:v>
+                  <c:v>1.607</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2125999999999999</c:v>
+                  <c:v>1.1233</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0845</c:v>
+                  <c:v>0.89710000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91408999999999996</c:v>
+                  <c:v>0.88349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.84543999999999997</c:v>
+                  <c:v>0.86875999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85167000000000004</c:v>
+                  <c:v>0.87475999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88656000000000001</c:v>
+                  <c:v>0.92479999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86412</c:v>
+                  <c:v>0.95491999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2048000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13100,7 +13103,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13131,10 +13134,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>0.55456000000000005</v>
+        <v>0.55376000000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>1.7390000000000001</v>
+        <v>1.7737000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -13145,10 +13148,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>0.59021999999999997</v>
+        <v>0.58762999999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>1.6392</v>
+        <v>1.607</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -13159,10 +13162,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>0.48563000000000001</v>
+        <v>0.46259</v>
       </c>
       <c r="D4" s="1">
-        <v>1.2125999999999999</v>
+        <v>1.1233</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -13173,10 +13176,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>0.44772000000000001</v>
+        <v>0.42957000000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>1.0845</v>
+        <v>0.89710000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -13187,10 +13190,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>0.42369000000000001</v>
+        <v>0.41237000000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>0.91408999999999996</v>
+        <v>0.88349</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -13201,10 +13204,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>0.40619</v>
+        <v>0.41735</v>
       </c>
       <c r="D7" s="1">
-        <v>0.84543999999999997</v>
+        <v>0.86875999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -13215,10 +13218,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>0.40309</v>
+        <v>0.40505999999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>0.85167000000000004</v>
+        <v>0.87475999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -13229,10 +13232,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>0.39877000000000001</v>
+        <v>0.40445999999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>0.88656000000000001</v>
+        <v>0.92479999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -13243,10 +13246,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>0.38662999999999997</v>
+        <v>0.39661999999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>0.86412</v>
+        <v>0.95491999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -13257,7 +13260,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="1">
-        <v>0.39069999999999999</v>
+        <v>0.38274999999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.2048000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/simple-hashTimes.xlsx
+++ b/simple-hashTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnpeterson/Documents/UTexas CS/PS/cs380p-f23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE56CA5-F3C9-0945-8820-A54BA5713466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C80F08-654A-0E4D-ACFD-E04391AC0426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="3500" windowWidth="31980" windowHeight="17440" activeTab="2" xr2:uid="{09B1B139-03D2-1C4D-B9A6-5AC75A022D8A}"/>
   </bookViews>
@@ -13102,8 +13102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36718F5-1030-AA4B-B6AA-4B2B10738B16}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
